--- a/output/1Y_P5_1VAL-D.xlsx
+++ b/output/1Y_P5_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>9.379</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>1066.2117</v>
       </c>
-      <c r="G2" s="1">
-        <v>1066.2117</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.075500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.379</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.075500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>9.661099999999999</v>
       </c>
+      <c r="E3" s="1">
+        <v>1066.2117</v>
+      </c>
       <c r="F3" s="1">
         <v>1035.0788</v>
       </c>
-      <c r="G3" s="1">
-        <v>2101.2906</v>
-      </c>
       <c r="H3" s="1">
-        <v>20195.2935</v>
+        <v>10247.2545</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.518000000000001</v>
+        <v>10247.2545</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.379</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20195.2935</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0124</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>10.7352</v>
       </c>
+      <c r="E4" s="1">
+        <v>2101.2906</v>
+      </c>
       <c r="F4" s="1">
         <v>931.515</v>
       </c>
-      <c r="G4" s="1">
-        <v>3032.8056</v>
-      </c>
       <c r="H4" s="1">
-        <v>32388.8473</v>
+        <v>22440.7327</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>9.8918</v>
+        <v>22440.7327</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>9.518000000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32388.8473</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0726</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>10.2783</v>
       </c>
+      <c r="E5" s="1">
+        <v>3032.8056</v>
+      </c>
       <c r="F5" s="1">
         <v>972.9235</v>
       </c>
-      <c r="G5" s="1">
-        <v>4005.7291</v>
-      </c>
       <c r="H5" s="1">
-        <v>40958.5803</v>
+        <v>31010.4371</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>9.9857</v>
+        <v>31010.4371</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>9.8918</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40958.5803</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0337</v>
+        <v>-0.0441</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>9.807499999999999</v>
       </c>
+      <c r="E6" s="1">
+        <v>4005.7291</v>
+      </c>
       <c r="F6" s="1">
         <v>1019.6278</v>
       </c>
-      <c r="G6" s="1">
-        <v>5025.357</v>
-      </c>
       <c r="H6" s="1">
-        <v>49030.3977</v>
+        <v>39082.2968</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>9.9495</v>
+        <v>39082.2968</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9.9857</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.5</v>
       </c>
-      <c r="L6" s="1">
-        <v>1802.5781</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8197.421899999999</v>
+        <v>1364.7625</v>
       </c>
       <c r="O6" s="1">
-        <v>1802.5781</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50832.9758</v>
+        <v>-8635.237499999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0025</v>
+        <v>-0.047</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>10.4459</v>
       </c>
+      <c r="E7" s="1">
+        <v>5025.357</v>
+      </c>
       <c r="F7" s="1">
-        <v>981.9653</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6007.3222</v>
+        <v>975.9778</v>
       </c>
       <c r="H7" s="1">
-        <v>62426.2906</v>
+        <v>52222.0019</v>
       </c>
       <c r="I7" s="1">
-        <v>60257.5112</v>
+        <v>1364.7625</v>
       </c>
       <c r="J7" s="1">
-        <v>10.0307</v>
+        <v>53586.7644</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50194.9661</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.988300000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10257.5112</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1545.0669</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63971.3575</v>
+        <v>-10194.9661</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0516</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>9.6988</v>
       </c>
+      <c r="E8" s="1">
+        <v>6001.3347</v>
+      </c>
       <c r="F8" s="1">
-        <v>1057.6062</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7064.9285</v>
+        <v>1051.1575</v>
       </c>
       <c r="H8" s="1">
-        <v>68165.25569999999</v>
+        <v>57903.2779</v>
       </c>
       <c r="I8" s="1">
-        <v>70515.0223</v>
+        <v>1169.7964</v>
       </c>
       <c r="J8" s="1">
-        <v>9.981</v>
+        <v>59073.0744</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60389.9321</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.0628</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10257.5112</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1287.5558</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>69452.8115</v>
+        <v>-10194.9661</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0611</v>
+        <v>-0.07099999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>10.0658</v>
       </c>
+      <c r="E9" s="1">
+        <v>7052.4922</v>
+      </c>
       <c r="F9" s="1">
-        <v>1019.0458</v>
-      </c>
-      <c r="G9" s="1">
-        <v>8083.9743</v>
+        <v>1012.8322</v>
       </c>
       <c r="H9" s="1">
-        <v>80948.8762</v>
+        <v>70620.1305</v>
       </c>
       <c r="I9" s="1">
-        <v>80772.53350000001</v>
+        <v>974.8304000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>9.9917</v>
+        <v>71594.96090000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70584.8982</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.0085</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10257.5112</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1030.0446</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>81978.92080000001</v>
+        <v>-10194.9661</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0318</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E10" s="1">
+        <v>8065.3244</v>
+      </c>
       <c r="F10" s="1">
-        <v>908.967</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8992.9413</v>
+        <v>903.4246000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>100957.4568</v>
+        <v>90543.7509</v>
       </c>
       <c r="I10" s="1">
-        <v>91030.04459999999</v>
+        <v>779.8643</v>
       </c>
       <c r="J10" s="1">
-        <v>10.1224</v>
+        <v>91323.6152</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80779.8643</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.0157</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10257.5112</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>772.5335</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>101729.9902</v>
+        <v>-10194.9661</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.106</v>
+        <v>0.1192</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E11" s="1">
+        <v>8968.749</v>
+      </c>
       <c r="F11" s="1">
-        <v>921.2699</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9914.2112</v>
+        <v>915.6525</v>
       </c>
       <c r="H11" s="1">
-        <v>109813.7687</v>
+        <v>99341.45110000001</v>
       </c>
       <c r="I11" s="1">
-        <v>101287.5558</v>
+        <v>584.8982</v>
       </c>
       <c r="J11" s="1">
-        <v>10.2164</v>
+        <v>99926.34940000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90974.83040000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.1435</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10257.5112</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>515.0223</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>110328.7911</v>
+        <v>-10194.9661</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0125</v>
+        <v>-0.0138</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E12" s="1">
+        <v>9884.401400000001</v>
+      </c>
       <c r="F12" s="1">
-        <v>940.5038</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10854.715</v>
+        <v>934.7691</v>
       </c>
       <c r="H12" s="1">
-        <v>117771.4871</v>
+        <v>107243.7787</v>
       </c>
       <c r="I12" s="1">
-        <v>111545.0669</v>
+        <v>389.9321</v>
       </c>
       <c r="J12" s="1">
-        <v>10.2762</v>
+        <v>107633.7109</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101169.7964</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.2353</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10257.5112</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>257.5112</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>118028.9983</v>
+        <v>-10194.9661</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0191</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E13" s="1">
+        <v>10819.1706</v>
+      </c>
       <c r="F13" s="1">
-        <v>882.2375</v>
-      </c>
-      <c r="G13" s="1">
-        <v>11736.9526</v>
+        <v>876.8581</v>
       </c>
       <c r="H13" s="1">
-        <v>135753.1145</v>
+        <v>125137.7726</v>
       </c>
       <c r="I13" s="1">
-        <v>121802.5781</v>
+        <v>194.9661</v>
       </c>
       <c r="J13" s="1">
-        <v>10.3777</v>
+        <v>125332.7386</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111364.7625</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.2933</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10257.5112</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>135753.1145</v>
+        <v>-10194.9661</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0603</v>
+        <v>0.0654</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E14" s="1">
+        <v>11696.0287</v>
+      </c>
       <c r="F14" s="1">
-        <v>-11736.9526</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-10819.1706</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>143224.8887</v>
       </c>
       <c r="I14" s="1">
-        <v>121802.5781</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>10.3777</v>
+        <v>143224.8887</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111364.7625</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.521599999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>143726.0263</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>143726.0263</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>143726.0263</v>
+        <v>132487.2351</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0139</v>
+        <v>0.0583</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>9.379</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1066.2117</v>
       </c>
       <c r="G2" s="1">
-        <v>1066.2117</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.075500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.379</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.075500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>1066.2117</v>
       </c>
       <c r="F3" s="1">
         <v>1014.7588</v>
       </c>
       <c r="G3" s="1">
-        <v>2080.9706</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10247.2545</v>
       </c>
       <c r="I3" s="1">
-        <v>19803.6864</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.5166</v>
+        <v>10247.2545</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9803.686400000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.194900000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9803.686400000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>196.3136</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20196.3136</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0124</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>10.7352</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>2080.9706</v>
       </c>
       <c r="F4" s="1">
         <v>728.1497000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>2809.1203</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>22223.7251</v>
       </c>
       <c r="I4" s="1">
-        <v>27620.5192</v>
+        <v>196.3136</v>
       </c>
       <c r="J4" s="1">
-        <v>9.8324</v>
+        <v>22420.0388</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17620.5192</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.467499999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-7816.8328</v>
       </c>
-      <c r="O4" s="1">
-        <v>2379.4808</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32379.4808</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0723</v>
+        <v>0.1073</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>10.2783</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2809.1203</v>
       </c>
       <c r="F5" s="1">
         <v>1102.8602</v>
       </c>
       <c r="G5" s="1">
-        <v>3911.9804</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>28723.2548</v>
       </c>
       <c r="I5" s="1">
-        <v>38956.0468</v>
+        <v>2379.4808</v>
       </c>
       <c r="J5" s="1">
-        <v>9.9581</v>
+        <v>31102.7357</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28956.0468</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.3079</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-11335.5276</v>
       </c>
-      <c r="O5" s="1">
-        <v>1043.9532</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41043.9532</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0315</v>
+        <v>-0.0406</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>3911.9804</v>
       </c>
       <c r="F6" s="1">
         <v>1126.0722</v>
       </c>
       <c r="G6" s="1">
-        <v>5038.0527</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>49154.2645</v>
+        <v>38167.6284</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>1043.9532</v>
       </c>
       <c r="J6" s="1">
-        <v>9.9245</v>
+        <v>39211.5816</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10.225</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.5</v>
       </c>
-      <c r="L6" s="1">
-        <v>1760.3912</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-9283.562</v>
+        <v>1264.1041</v>
       </c>
       <c r="O6" s="1">
-        <v>1760.3912</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50914.6557</v>
+        <v>-9779.849099999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0025</v>
+        <v>-0.046</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>10.4459</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>5038.0527</v>
       </c>
       <c r="F7" s="1">
         <v>735.7861</v>
       </c>
       <c r="G7" s="1">
-        <v>5773.8387</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>52353.9317</v>
       </c>
       <c r="I7" s="1">
-        <v>57685.9479</v>
+        <v>1264.1041</v>
       </c>
       <c r="J7" s="1">
-        <v>9.9909</v>
+        <v>53618.0359</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47685.9479</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.465199999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7685.9479</v>
       </c>
-      <c r="O7" s="1">
-        <v>4074.4433</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64074.4433</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0519</v>
+        <v>0.0895</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>9.6988</v>
       </c>
       <c r="E8" s="1">
+        <v>5773.8387</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1399.9831</v>
+      </c>
+      <c r="G8" s="1">
         <v>70000</v>
       </c>
-      <c r="F8" s="1">
-        <v>1451.1531</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7224.9918</v>
-      </c>
       <c r="H8" s="1">
-        <v>69709.6109</v>
+        <v>55708.3057</v>
       </c>
       <c r="I8" s="1">
-        <v>71760.3912</v>
+        <v>3578.1562</v>
       </c>
       <c r="J8" s="1">
-        <v>9.9322</v>
+        <v>59286.4619</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61264.1041</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.6106</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-14074.4433</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>69709.6109</v>
+        <v>-13578.1562</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0589</v>
+        <v>-0.06809999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>10.0658</v>
       </c>
       <c r="E9" s="1">
+        <v>7173.8219</v>
+      </c>
+      <c r="F9" s="1">
+        <v>815.3927</v>
+      </c>
+      <c r="G9" s="1">
         <v>80000</v>
       </c>
-      <c r="F9" s="1">
-        <v>764.2228</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7989.2146</v>
-      </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>71835.06510000001</v>
       </c>
       <c r="I9" s="1">
-        <v>79452.9047</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>9.945</v>
+        <v>71835.06510000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69471.68399999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.684100000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-7692.5135</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2307.4865</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82307.4865</v>
+        <v>-8207.579900000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0326</v>
+        <v>0.0368</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>11.2848</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>7989.2146</v>
       </c>
       <c r="F10" s="1">
         <v>27.6744</v>
       </c>
       <c r="G10" s="1">
-        <v>8016.8889</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>89689.31939999999</v>
       </c>
       <c r="I10" s="1">
-        <v>79765.20419999999</v>
+        <v>1792.4201</v>
       </c>
       <c r="J10" s="1">
-        <v>9.9496</v>
+        <v>91481.7395</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>69783.98360000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>8.7348</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-312.2995</v>
       </c>
-      <c r="O10" s="1">
-        <v>11995.187</v>
-      </c>
-      <c r="P10" s="1">
-        <v>101995.187</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.105</v>
+        <v>0.1179</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>11.1341</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>8016.8889</v>
       </c>
       <c r="F11" s="1">
         <v>1011.3152</v>
       </c>
       <c r="G11" s="1">
-        <v>9028.204100000001</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>88798.2684</v>
       </c>
       <c r="I11" s="1">
-        <v>91025.2887</v>
+        <v>11480.1206</v>
       </c>
       <c r="J11" s="1">
-        <v>10.0823</v>
+        <v>100278.3889</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>81044.0681</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.1092</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11260.0845</v>
       </c>
-      <c r="O11" s="1">
-        <v>10735.1025</v>
-      </c>
-      <c r="P11" s="1">
-        <v>110735.1025</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0113</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>10.9064</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>9028.204100000001</v>
       </c>
       <c r="F12" s="1">
         <v>1110.2316</v>
       </c>
       <c r="G12" s="1">
-        <v>10138.4357</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>97954.2089</v>
       </c>
       <c r="I12" s="1">
-        <v>103133.9189</v>
+        <v>10220.036</v>
       </c>
       <c r="J12" s="1">
-        <v>10.1726</v>
+        <v>108174.245</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93152.6983</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.318</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-12108.6302</v>
       </c>
-      <c r="O12" s="1">
-        <v>8626.472299999999</v>
-      </c>
-      <c r="P12" s="1">
-        <v>118626.4723</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0175</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>11.6267</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>10138.4357</v>
       </c>
       <c r="F13" s="1">
         <v>236.5329</v>
       </c>
       <c r="G13" s="1">
-        <v>10374.9687</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>117264.1892</v>
       </c>
       <c r="I13" s="1">
-        <v>105884.0163</v>
+        <v>8111.4059</v>
       </c>
       <c r="J13" s="1">
-        <v>10.2057</v>
+        <v>125375.5951</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>95902.7957</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.459300000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-2750.0974</v>
       </c>
-      <c r="O13" s="1">
-        <v>15876.3749</v>
-      </c>
-      <c r="P13" s="1">
-        <v>135876.3749</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0564</v>
+        <v>0.0609</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>12.3095</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>10374.9687</v>
       </c>
       <c r="F14" s="1">
         <v>-10374.9687</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127047.7162</v>
       </c>
       <c r="I14" s="1">
-        <v>105884.0163</v>
+        <v>15361.3085</v>
       </c>
       <c r="J14" s="1">
-        <v>10.2057</v>
+        <v>142409.0247</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>95902.7957</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.2437</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127047.7162</v>
       </c>
-      <c r="O14" s="1">
-        <v>142924.0911</v>
-      </c>
-      <c r="P14" s="1">
-        <v>142924.0911</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0202</v>
+        <v>0.052</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>9.379</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1066.2117</v>
       </c>
       <c r="G2" s="1">
-        <v>1066.2117</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.075500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.379</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.075500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>1066.2117</v>
       </c>
       <c r="F3" s="1">
         <v>1019.9612</v>
       </c>
       <c r="G3" s="1">
-        <v>2086.173</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10247.2545</v>
       </c>
       <c r="I3" s="1">
-        <v>19853.9475</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.5169</v>
+        <v>10247.2545</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9853.9475</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.242000000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9853.9475</v>
       </c>
-      <c r="O3" s="1">
-        <v>146.0525</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20196.0525</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0124</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>10.7352</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>2086.173</v>
       </c>
       <c r="F4" s="1">
         <v>737.0163</v>
       </c>
       <c r="G4" s="1">
-        <v>2823.1893</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>22279.2845</v>
       </c>
       <c r="I4" s="1">
-        <v>27765.9649</v>
+        <v>146.0525</v>
       </c>
       <c r="J4" s="1">
-        <v>9.835000000000001</v>
+        <v>22425.3369</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17765.9649</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.5161</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-7912.0173</v>
       </c>
-      <c r="O4" s="1">
-        <v>2234.0351</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32384.2851</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0725</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>10.2783</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2823.1893</v>
       </c>
       <c r="F5" s="1">
         <v>1118.2289</v>
       </c>
       <c r="G5" s="1">
-        <v>3941.4182</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>28867.1105</v>
       </c>
       <c r="I5" s="1">
-        <v>39259.4573</v>
+        <v>2234.0351</v>
       </c>
       <c r="J5" s="1">
-        <v>9.960699999999999</v>
+        <v>31101.1456</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29259.4573</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.364</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-11493.4924</v>
       </c>
-      <c r="O5" s="1">
-        <v>740.5427</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41041.544</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0317</v>
+        <v>-0.0408</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>3941.4182</v>
       </c>
       <c r="F6" s="1">
         <v>1095.1356</v>
       </c>
       <c r="G6" s="1">
-        <v>5036.5538</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>49139.6413</v>
+        <v>38454.841</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>740.5427</v>
       </c>
       <c r="J6" s="1">
-        <v>9.9274</v>
+        <v>39195.3837</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10.1486</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.5</v>
       </c>
-      <c r="L6" s="1">
-        <v>1773.6382</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8966.904500000001</v>
+        <v>1270.4352</v>
       </c>
       <c r="O6" s="1">
-        <v>1773.6382</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50913.2795</v>
+        <v>-9470.1075</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0025</v>
+        <v>-0.0464</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>10.4459</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>5036.5538</v>
       </c>
       <c r="F7" s="1">
         <v>809.9408</v>
       </c>
       <c r="G7" s="1">
-        <v>5846.4947</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52338.3566</v>
       </c>
       <c r="I7" s="1">
-        <v>58460.561</v>
+        <v>1270.4352</v>
       </c>
       <c r="J7" s="1">
-        <v>9.9992</v>
+        <v>53608.7918</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48460.561</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.6218</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8460.561</v>
       </c>
-      <c r="O7" s="1">
-        <v>3313.0772</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64068.096</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0518</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>9.6988</v>
       </c>
       <c r="E8" s="1">
+        <v>5846.4947</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1320.769</v>
+      </c>
+      <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
-      <c r="F8" s="1">
-        <v>1372.652</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7219.1467</v>
-      </c>
       <c r="H8" s="1">
-        <v>69653.21490000001</v>
+        <v>56409.3193</v>
       </c>
       <c r="I8" s="1">
-        <v>71773.6382</v>
+        <v>2809.8742</v>
       </c>
       <c r="J8" s="1">
-        <v>9.9421</v>
+        <v>59219.1935</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61270.4352</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.4799</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-13313.0772</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>69653.21490000001</v>
+        <v>-12809.8742</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0596</v>
+        <v>-0.06900000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>10.0658</v>
       </c>
       <c r="E9" s="1">
+        <v>7167.2637</v>
+      </c>
+      <c r="F9" s="1">
+        <v>963.169</v>
+      </c>
+      <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
-      <c r="F9" s="1">
-        <v>911.2859999999999</v>
-      </c>
-      <c r="G9" s="1">
-        <v>8130.4327</v>
-      </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71769.3947</v>
       </c>
       <c r="I9" s="1">
-        <v>80946.461</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>9.956</v>
+        <v>71769.3947</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70965.5021</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-9172.8228</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>827.1772</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82241.2651</v>
+        <v>-9695.0669</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0325</v>
+        <v>0.0368</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>11.2848</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>8130.4327</v>
       </c>
       <c r="F10" s="1">
         <v>48.6787</v>
       </c>
       <c r="G10" s="1">
-        <v>8179.1114</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>91274.67660000001</v>
       </c>
       <c r="I10" s="1">
-        <v>81495.79029999999</v>
+        <v>304.9331</v>
       </c>
       <c r="J10" s="1">
-        <v>9.963900000000001</v>
+        <v>91579.60980000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>71514.8314</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>8.7959</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-549.3294</v>
       </c>
-      <c r="O10" s="1">
-        <v>10277.8478</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102099.0061</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.1069</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>11.1341</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>8179.1114</v>
       </c>
       <c r="F11" s="1">
         <v>1054.9596</v>
       </c>
       <c r="G11" s="1">
-        <v>9234.071</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>90595.10950000001</v>
       </c>
       <c r="I11" s="1">
-        <v>93241.8161</v>
+        <v>9755.603800000001</v>
       </c>
       <c r="J11" s="1">
-        <v>10.0976</v>
+        <v>100350.7133</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>83260.8572</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.1797</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11746.0258</v>
       </c>
-      <c r="O11" s="1">
-        <v>8531.822099999999</v>
-      </c>
-      <c r="P11" s="1">
-        <v>110812.0862</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0115</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>10.9064</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>9234.071</v>
       </c>
       <c r="F12" s="1">
         <v>1161.6658</v>
       </c>
       <c r="G12" s="1">
-        <v>10395.7368</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>100187.8236</v>
       </c>
       <c r="I12" s="1">
-        <v>105911.4082</v>
+        <v>8009.578</v>
       </c>
       <c r="J12" s="1">
-        <v>10.188</v>
+        <v>108197.4016</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95930.44929999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.3887</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-12669.5921</v>
       </c>
-      <c r="O12" s="1">
-        <v>5862.23</v>
-      </c>
-      <c r="P12" s="1">
-        <v>118653.8954</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0179</v>
+        <v>-0.0195</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>11.6267</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>10395.7368</v>
       </c>
       <c r="F13" s="1">
         <v>269.3526</v>
       </c>
       <c r="G13" s="1">
-        <v>10665.0894</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>120240.2108</v>
       </c>
       <c r="I13" s="1">
-        <v>109043.09</v>
+        <v>5339.9859</v>
       </c>
       <c r="J13" s="1">
-        <v>10.2243</v>
+        <v>125580.1967</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>99062.1311</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.5291</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3131.6818</v>
       </c>
-      <c r="O13" s="1">
-        <v>12730.5482</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136086.1719</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0578</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>12.3095</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>10665.0894</v>
       </c>
       <c r="F14" s="1">
         <v>-10665.0894</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>130600.419</v>
       </c>
       <c r="I14" s="1">
-        <v>109043.09</v>
+        <v>12208.3041</v>
       </c>
       <c r="J14" s="1">
-        <v>10.2243</v>
+        <v>142808.7231</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>99062.1311</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.288399999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>130600.419</v>
       </c>
-      <c r="O14" s="1">
-        <v>143330.9672</v>
-      </c>
-      <c r="P14" s="1">
-        <v>143330.9672</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0189</v>
+        <v>0.0533</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>9.379</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1066.2117</v>
       </c>
       <c r="G2" s="1">
-        <v>1066.2117</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.075500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.379</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.075500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>1066.2117</v>
       </c>
       <c r="F3" s="1">
         <v>1025.1637</v>
       </c>
       <c r="G3" s="1">
-        <v>2091.3754</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10247.2545</v>
       </c>
       <c r="I3" s="1">
-        <v>19904.2087</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.517300000000001</v>
+        <v>10247.2545</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9904.208699999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.289199999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9904.208699999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>95.79130000000001</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20195.7913</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0124</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>10.7352</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>2091.3754</v>
       </c>
       <c r="F4" s="1">
         <v>745.9297</v>
       </c>
       <c r="G4" s="1">
-        <v>2837.3051</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>22334.8438</v>
       </c>
       <c r="I4" s="1">
-        <v>27911.9132</v>
+        <v>95.79130000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>9.8375</v>
+        <v>22430.6351</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>17911.9132</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.5647</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8007.7045</v>
       </c>
-      <c r="O4" s="1">
-        <v>2088.0868</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32389.0868</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0726</v>
+        <v>0.1078</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>10.2783</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2837.3051</v>
       </c>
       <c r="F5" s="1">
         <v>1133.7472</v>
       </c>
       <c r="G5" s="1">
-        <v>3971.0523</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>29011.4448</v>
       </c>
       <c r="I5" s="1">
-        <v>39564.9071</v>
+        <v>2088.0868</v>
       </c>
       <c r="J5" s="1">
-        <v>9.9633</v>
+        <v>31099.5316</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29564.9071</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.4201</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-11652.9939</v>
       </c>
-      <c r="O5" s="1">
-        <v>435.0929</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41039.1029</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0318</v>
+        <v>-0.041</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>3971.0523</v>
       </c>
       <c r="F6" s="1">
         <v>1063.9911</v>
       </c>
       <c r="G6" s="1">
-        <v>5035.0434</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>49124.9048</v>
+        <v>38743.9691</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>435.0929</v>
       </c>
       <c r="J6" s="1">
-        <v>9.930400000000001</v>
+        <v>39179.062</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10.0729</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.5</v>
       </c>
-      <c r="L6" s="1">
-        <v>1786.9735</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8648.1193</v>
+        <v>1276.7873</v>
       </c>
       <c r="O6" s="1">
-        <v>1786.9735</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50911.8784</v>
+        <v>-9158.3056</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0025</v>
+        <v>-0.0467</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>10.4459</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>5035.0434</v>
       </c>
       <c r="F7" s="1">
         <v>885.0804000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>5920.1238</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52322.6609</v>
       </c>
       <c r="I7" s="1">
-        <v>59245.4611</v>
+        <v>1276.7873</v>
       </c>
       <c r="J7" s="1">
-        <v>10.0075</v>
+        <v>53599.4482</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49245.4611</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.7805</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9245.4611</v>
       </c>
-      <c r="O7" s="1">
-        <v>2541.5125</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64061.6631</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0517</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>9.6988</v>
       </c>
       <c r="E8" s="1">
+        <v>5920.1238</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1240.4964</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>1293.0994</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7213.2232</v>
-      </c>
       <c r="H8" s="1">
-        <v>69596.0629</v>
+        <v>57119.7226</v>
       </c>
       <c r="I8" s="1">
-        <v>71786.97349999999</v>
+        <v>2031.3263</v>
       </c>
       <c r="J8" s="1">
-        <v>9.9521</v>
+        <v>59151.0488</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61276.7873</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.3506</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-12541.5125</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>69596.0629</v>
+        <v>-12031.3263</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0603</v>
+        <v>-0.0699</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>10.0658</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>7160.6202</v>
       </c>
       <c r="F9" s="1">
         <v>993.463</v>
       </c>
       <c r="G9" s="1">
-        <v>8206.6862</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82177.6525</v>
+        <v>71702.8702</v>
       </c>
       <c r="I9" s="1">
-        <v>81786.97349999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>9.9659</v>
+        <v>71702.8702</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71276.7873</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.954000000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82177.6525</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0324</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>11.2848</v>
       </c>
       <c r="E10" s="1">
+        <v>8154.0832</v>
+      </c>
+      <c r="F10" s="1">
+        <v>191.0771</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>138.474</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8345.1603</v>
-      </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>91540.1842</v>
       </c>
       <c r="I10" s="1">
-        <v>83349.6254</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>9.9878</v>
+        <v>91540.1842</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>73433.05379999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.005699999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-1562.6518</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>8437.3482</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>102122.6209</v>
+        <v>-2156.2665</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1079</v>
+        <v>0.1204</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>11.1341</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>8345.1603</v>
       </c>
       <c r="F11" s="1">
         <v>1100.3388</v>
       </c>
       <c r="G11" s="1">
-        <v>9445.499</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>92434.33319999999</v>
       </c>
       <c r="I11" s="1">
-        <v>95600.9072</v>
+        <v>7843.7335</v>
       </c>
       <c r="J11" s="1">
-        <v>10.1213</v>
+        <v>100278.0667</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>85684.33560000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.2675</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12251.2818</v>
       </c>
-      <c r="O11" s="1">
-        <v>6186.0664</v>
-      </c>
-      <c r="P11" s="1">
-        <v>110808.1918</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0117</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>10.9064</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>9445.499</v>
       </c>
       <c r="F12" s="1">
         <v>1215.3746</v>
       </c>
       <c r="G12" s="1">
-        <v>10660.8736</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>102481.7753</v>
       </c>
       <c r="I12" s="1">
-        <v>108856.2687</v>
+        <v>5592.4517</v>
       </c>
       <c r="J12" s="1">
-        <v>10.2108</v>
+        <v>108074.2271</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98939.6971</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.4748</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13255.3615</v>
       </c>
-      <c r="O12" s="1">
-        <v>2930.7048</v>
-      </c>
-      <c r="P12" s="1">
-        <v>118599.0515</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0183</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>11.6267</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>10660.8736</v>
       </c>
       <c r="F13" s="1">
         <v>304.174</v>
       </c>
       <c r="G13" s="1">
-        <v>10965.0476</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>123306.8626</v>
       </c>
       <c r="I13" s="1">
-        <v>112392.8083</v>
+        <v>2337.0902</v>
       </c>
       <c r="J13" s="1">
-        <v>10.2501</v>
+        <v>125643.9528</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>102476.2367</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.612399999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3536.5396</v>
       </c>
-      <c r="O13" s="1">
-        <v>9394.165199999999</v>
-      </c>
-      <c r="P13" s="1">
-        <v>136219.1954</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0593</v>
+        <v>0.0641</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>12.3095</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>10965.0476</v>
       </c>
       <c r="F14" s="1">
         <v>-10965.0476</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>134273.587</v>
       </c>
       <c r="I14" s="1">
-        <v>112392.8083</v>
+        <v>8800.5506</v>
       </c>
       <c r="J14" s="1">
-        <v>10.2501</v>
+        <v>143074.1375</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>102476.2367</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.345700000000001</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>134273.587</v>
       </c>
-      <c r="O14" s="1">
-        <v>143667.7522</v>
-      </c>
-      <c r="P14" s="1">
-        <v>143667.7522</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0174</v>
+        <v>0.0548</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>9.379</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1066.2117</v>
       </c>
       <c r="G2" s="1">
-        <v>1066.2117</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.075500000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.379</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.075500000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>1066.2117</v>
       </c>
       <c r="F3" s="1">
         <v>1030.3661</v>
       </c>
       <c r="G3" s="1">
-        <v>2096.5778</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10247.2545</v>
       </c>
       <c r="I3" s="1">
-        <v>19954.4699</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9.5176</v>
+        <v>10247.2545</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9954.4699</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.3363</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9954.4699</v>
       </c>
-      <c r="O3" s="1">
-        <v>45.5301</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20195.5301</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0124</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>10.7352</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>2096.5778</v>
       </c>
       <c r="F4" s="1">
         <v>754.8899</v>
       </c>
       <c r="G4" s="1">
-        <v>2851.4678</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>22390.4031</v>
       </c>
       <c r="I4" s="1">
-        <v>28058.3642</v>
+        <v>45.5301</v>
       </c>
       <c r="J4" s="1">
-        <v>9.84</v>
+        <v>22435.9332</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18058.3642</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>8.613300000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8103.8943</v>
       </c>
-      <c r="O4" s="1">
-        <v>1941.6358</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32393.8858</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0728</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>10.2783</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2851.4678</v>
       </c>
       <c r="F5" s="1">
         <v>1149.4157</v>
       </c>
       <c r="G5" s="1">
-        <v>4000.8835</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>29156.2579</v>
       </c>
       <c r="I5" s="1">
-        <v>39872.4039</v>
+        <v>1941.6358</v>
       </c>
       <c r="J5" s="1">
-        <v>9.9659</v>
+        <v>31097.8937</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29872.4039</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.4761</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-11814.0397</v>
       </c>
-      <c r="O5" s="1">
-        <v>127.5961</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41036.6299</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.032</v>
+        <v>-0.0413</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>4000.8835</v>
       </c>
       <c r="F6" s="1">
         <v>1032.6379</v>
       </c>
       <c r="G6" s="1">
-        <v>5033.5214</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>49110.0548</v>
+        <v>39035.0199</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>127.5961</v>
       </c>
       <c r="J6" s="1">
-        <v>9.933400000000001</v>
+        <v>39162.6161</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9.9978</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.5</v>
       </c>
-      <c r="L6" s="1">
-        <v>1800.3976</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8327.1986</v>
+        <v>1283.1605</v>
       </c>
       <c r="O6" s="1">
-        <v>1800.3976</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>50910.4524</v>
+        <v>-8844.435600000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0025</v>
+        <v>-0.0471</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>10.4459</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>5033.5214</v>
       </c>
       <c r="F7" s="1">
         <v>961.2157</v>
       </c>
       <c r="G7" s="1">
-        <v>5994.7371</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>52306.8442</v>
       </c>
       <c r="I7" s="1">
-        <v>60040.763</v>
+        <v>1283.1605</v>
       </c>
       <c r="J7" s="1">
-        <v>10.0156</v>
+        <v>53590.0047</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50040.763</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>9.9415</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10040.763</v>
       </c>
-      <c r="O7" s="1">
-        <v>1759.6346</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64055.1439</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0516</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>9.6988</v>
       </c>
       <c r="E8" s="1">
+        <v>5994.7371</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1159.1535</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>1212.4835</v>
-      </c>
-      <c r="G8" s="1">
-        <v>7207.2205</v>
-      </c>
       <c r="H8" s="1">
-        <v>69538.1467</v>
+        <v>57839.6212</v>
       </c>
       <c r="I8" s="1">
-        <v>71800.3976</v>
+        <v>1242.3975</v>
       </c>
       <c r="J8" s="1">
-        <v>9.962300000000001</v>
+        <v>59082.0188</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61283.1605</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.2228</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11759.6346</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>69538.1467</v>
+        <v>-11242.3975</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.061</v>
+        <v>-0.0709</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>10.0658</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>7153.8905</v>
       </c>
       <c r="F9" s="1">
         <v>993.463</v>
       </c>
       <c r="G9" s="1">
-        <v>8200.6836</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>82117.5448</v>
+        <v>71635.4829</v>
       </c>
       <c r="I9" s="1">
-        <v>81800.3976</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>9.9748</v>
+        <v>71635.4829</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71283.1605</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.9643</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82117.5448</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0324</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>11.2848</v>
       </c>
       <c r="E10" s="1">
+        <v>8147.3535</v>
+      </c>
+      <c r="F10" s="1">
+        <v>367.7687</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>314.4387</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8515.122300000001</v>
-      </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>91464.6351</v>
       </c>
       <c r="I10" s="1">
-        <v>85348.7754</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>10.0232</v>
+        <v>91464.6351</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>75433.35679999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.258599999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-3548.3778</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>6451.6222</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>102044.9391</v>
+        <v>-4150.1963</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1078</v>
+        <v>0.1204</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>11.1341</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>8515.122300000001</v>
       </c>
       <c r="F11" s="1">
         <v>1147.5133</v>
       </c>
       <c r="G11" s="1">
-        <v>9662.6356</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>94316.9001</v>
       </c>
       <c r="I11" s="1">
-        <v>98125.30349999999</v>
+        <v>5849.8037</v>
       </c>
       <c r="J11" s="1">
-        <v>10.1551</v>
+        <v>100166.7038</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88209.8849</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.3592</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12776.5281</v>
       </c>
-      <c r="O11" s="1">
-        <v>3675.0941</v>
-      </c>
-      <c r="P11" s="1">
-        <v>110702.3108</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.012</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>10.9064</v>
       </c>
       <c r="E12" s="1">
+        <v>9662.6356</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1198.6793</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>1253.8596</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10916.4952</v>
-      </c>
       <c r="H12" s="1">
-        <v>118441.7891</v>
+        <v>104837.6635</v>
       </c>
       <c r="I12" s="1">
-        <v>111800.3976</v>
+        <v>3073.2756</v>
       </c>
       <c r="J12" s="1">
-        <v>10.2414</v>
+        <v>107910.9391</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101283.1605</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.4819</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-13675.0941</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>118441.7891</v>
+        <v>-13073.2756</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0187</v>
+        <v>-0.0205</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>11.6267</v>
       </c>
       <c r="E13" s="1">
+        <v>10861.3148</v>
+      </c>
+      <c r="F13" s="1">
+        <v>413.8651</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>358.6848</v>
-      </c>
-      <c r="G13" s="1">
-        <v>11275.18</v>
-      </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>125625.2259</v>
       </c>
       <c r="I13" s="1">
-        <v>115970.7186</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>10.2855</v>
+        <v>125625.2259</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>106095.0463</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.7682</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-4170.321</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>5829.679</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>136241.7933</v>
+        <v>-4811.8858</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0607</v>
+        <v>0.0654</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>12.3095</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>11275.18</v>
       </c>
       <c r="F14" s="1">
         <v>-11275.18</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>138071.3441</v>
       </c>
       <c r="I14" s="1">
-        <v>115970.7186</v>
+        <v>5188.1142</v>
       </c>
       <c r="J14" s="1">
-        <v>10.2855</v>
+        <v>143259.4582</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>106095.0463</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.409599999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>138071.3441</v>
       </c>
-      <c r="O14" s="1">
-        <v>143901.0231</v>
-      </c>
-      <c r="P14" s="1">
-        <v>143901.0231</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.016</v>
+        <v>0.0563</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>12.2763</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3777</v>
+        <v>9.521599999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2057</v>
+        <v>9.2437</v>
       </c>
       <c r="E3" s="1">
-        <v>10.2243</v>
+        <v>9.288399999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>10.2501</v>
+        <v>9.345700000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>10.2855</v>
+        <v>9.409599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2964</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1919</v>
+        <v>0.3076</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1886</v>
+        <v>0.3035</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1918</v>
+        <v>0.3068</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1942</v>
+        <v>0.3085</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1956</v>
+        <v>0.3095</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2091</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1628</v>
+        <v>0.2143</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1602</v>
+        <v>0.2075</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1619</v>
+        <v>0.2097</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1631</v>
+        <v>0.2114</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1637</v>
+        <v>0.2128</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.3203</v>
       </c>
       <c r="C6" s="4">
-        <v>1.054</v>
+        <v>1.3404</v>
       </c>
       <c r="D6" s="4">
-        <v>1.0502</v>
+        <v>1.3648</v>
       </c>
       <c r="E6" s="4">
-        <v>1.0594</v>
+        <v>1.3658</v>
       </c>
       <c r="F6" s="4">
-        <v>1.0665</v>
+        <v>1.3635</v>
       </c>
       <c r="G6" s="4">
-        <v>1.0707</v>
+        <v>1.359</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3879</v>
+        <v>0.199</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4011</v>
+        <v>0.3897</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4015</v>
+        <v>0.3902</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4008</v>
+        <v>0.3885</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3984</v>
+        <v>0.3857</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1802.5781</v>
+        <v>1364.7625</v>
       </c>
       <c r="D8" s="1">
-        <v>1760.3912</v>
+        <v>1264.1041</v>
       </c>
       <c r="E8" s="1">
-        <v>1773.6382</v>
+        <v>1270.4352</v>
       </c>
       <c r="F8" s="1">
-        <v>1786.9735</v>
+        <v>1276.7873</v>
       </c>
       <c r="G8" s="1">
-        <v>1800.3976</v>
+        <v>1283.1605</v>
       </c>
     </row>
   </sheetData>
